--- a/artfynd/A 50304-2022.xlsx
+++ b/artfynd/A 50304-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>109488967</v>
+        <v>110261223</v>
       </c>
       <c r="B2" t="n">
-        <v>56395</v>
+        <v>90653</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,31 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -724,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>675846.4177085289</v>
+        <v>676250.5682961219</v>
       </c>
       <c r="R2" t="n">
-        <v>7280439.922101423</v>
+        <v>7280659.757381739</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -754,7 +753,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,7 +763,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -774,7 +773,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Spår av tretåig hackspett på gran</t>
+          <t>Fjolårets fruktkroppar, vit mycel matta i marken under</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -783,28 +782,29 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Heike Kontermann</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Heike Kontermann, Annika Lidström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>109488926</v>
+        <v>110260680</v>
       </c>
       <c r="B3" t="n">
-        <v>89832</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,29 +813,33 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -844,13 +848,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>675867.080447775</v>
+        <v>675660.07095134</v>
       </c>
       <c r="R3" t="n">
-        <v>7280448.224992081</v>
+        <v>7280535.563534467</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -874,7 +878,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -884,7 +888,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -902,40 +906,25 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Heike Kontermann</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Heike Kontermann, Annika Lidström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110260206</v>
+        <v>110260558</v>
       </c>
       <c r="B4" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,21 +937,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -979,10 +968,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>675919.9575304504</v>
+        <v>675635.4738289427</v>
       </c>
       <c r="R4" t="n">
-        <v>7280479.6283172</v>
+        <v>7280510.027055313</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1052,7 +1041,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110260680</v>
+        <v>110260425</v>
       </c>
       <c r="B5" t="n">
         <v>89392</v>
@@ -1099,10 +1088,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>675660.07095134</v>
+        <v>675585.2280005201</v>
       </c>
       <c r="R5" t="n">
-        <v>7280535.563534467</v>
+        <v>7280599.422211331</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1172,10 +1161,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110261460</v>
+        <v>110260506</v>
       </c>
       <c r="B6" t="n">
-        <v>89742</v>
+        <v>56395</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,34 +1173,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1506</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1219,10 +1209,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>676099.937234754</v>
+        <v>675629.4341162401</v>
       </c>
       <c r="R6" t="n">
-        <v>7280475.233084883</v>
+        <v>7280500.125891969</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,7 +1239,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1259,7 +1249,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1267,13 +1257,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1292,10 +1286,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110260306</v>
+        <v>110260601</v>
       </c>
       <c r="B7" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1308,21 +1302,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1339,10 +1333,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>675814.8945759572</v>
+        <v>675654.5452363107</v>
       </c>
       <c r="R7" t="n">
-        <v>7280569.421578153</v>
+        <v>7280510.355195801</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1412,7 +1406,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110260558</v>
+        <v>110260454</v>
       </c>
       <c r="B8" t="n">
         <v>89392</v>
@@ -1459,10 +1453,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>675635.4738289427</v>
+        <v>675595.1768940123</v>
       </c>
       <c r="R8" t="n">
-        <v>7280510.027055313</v>
+        <v>7280599.611201612</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1532,7 +1526,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110260225</v>
+        <v>110260609</v>
       </c>
       <c r="B9" t="n">
         <v>77506</v>
@@ -1579,10 +1573,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>675909.7835486304</v>
+        <v>675654.5452363107</v>
       </c>
       <c r="R9" t="n">
-        <v>7280469.475099097</v>
+        <v>7280510.355195801</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1652,10 +1646,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110261361</v>
+        <v>110261106</v>
       </c>
       <c r="B10" t="n">
-        <v>89673</v>
+        <v>81236</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1668,29 +1662,25 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1699,13 +1689,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>676164.9892225445</v>
+        <v>675690.2188880614</v>
       </c>
       <c r="R10" t="n">
-        <v>7280449.75695904</v>
+        <v>7280544.855100686</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1729,7 +1719,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1739,7 +1729,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1772,7 +1762,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110260425</v>
+        <v>110260581</v>
       </c>
       <c r="B11" t="n">
         <v>89392</v>
@@ -1819,10 +1809,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>675585.2280005201</v>
+        <v>675645.423038156</v>
       </c>
       <c r="R11" t="n">
-        <v>7280599.422211331</v>
+        <v>7280510.21620127</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1892,10 +1882,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110261282</v>
+        <v>110260888</v>
       </c>
       <c r="B12" t="n">
-        <v>89410</v>
+        <v>89406</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1908,21 +1898,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1939,10 +1929,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>676230.6180392652</v>
+        <v>675665.3588325111</v>
       </c>
       <c r="R12" t="n">
-        <v>7280489.81917104</v>
+        <v>7280530.49529985</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1969,7 +1959,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1979,7 +1969,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2012,10 +2002,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110261532</v>
+        <v>110260473</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2028,21 +2018,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2059,10 +2049,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>676070.2438064384</v>
+        <v>675615.5883526852</v>
       </c>
       <c r="R13" t="n">
-        <v>7280444.821680367</v>
+        <v>7280584.682483152</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2089,7 +2079,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2099,7 +2089,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2132,10 +2122,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110260506</v>
+        <v>110260649</v>
       </c>
       <c r="B14" t="n">
-        <v>56395</v>
+        <v>89673</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2148,31 +2138,30 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2180,10 +2169,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>675629.4341162401</v>
+        <v>675660.07095134</v>
       </c>
       <c r="R14" t="n">
-        <v>7280500.125891969</v>
+        <v>7280535.563534467</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2228,17 +2217,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2257,10 +2242,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110260601</v>
+        <v>110261181</v>
       </c>
       <c r="B15" t="n">
-        <v>81236</v>
+        <v>89356</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2269,25 +2254,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1312</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2304,10 +2289,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>675654.5452363107</v>
+        <v>675695.2059727855</v>
       </c>
       <c r="R15" t="n">
-        <v>7280510.355195801</v>
+        <v>7280544.743253341</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2377,10 +2362,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110261302</v>
+        <v>109488967</v>
       </c>
       <c r="B16" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2393,30 +2378,27 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2424,13 +2406,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>676239.7320939545</v>
+        <v>675846.4177085289</v>
       </c>
       <c r="R16" t="n">
-        <v>7280469.645686759</v>
+        <v>7280439.922101423</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2454,7 +2436,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2464,7 +2446,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2472,35 +2454,39 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Spår av tretåig hackspett på gran</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Heike Kontermann</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Heike Kontermann, Annika Lidström</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>110261473</v>
+        <v>109488926</v>
       </c>
       <c r="B17" t="n">
-        <v>89410</v>
+        <v>89832</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2509,33 +2495,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2544,13 +2526,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>676099.937234754</v>
+        <v>675867.080447775</v>
       </c>
       <c r="R17" t="n">
-        <v>7280475.233084883</v>
+        <v>7280448.224992081</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2574,7 +2556,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2584,7 +2566,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2602,25 +2584,40 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Heike Kontermann</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Heike Kontermann, Annika Lidström</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>110261504</v>
+        <v>110260206</v>
       </c>
       <c r="B18" t="n">
-        <v>89673</v>
+        <v>89410</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2633,21 +2630,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>658</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2664,10 +2661,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>676080.5199388565</v>
+        <v>675919.9575304504</v>
       </c>
       <c r="R18" t="n">
-        <v>7280439.642765212</v>
+        <v>7280479.6283172</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2694,7 +2691,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2704,7 +2701,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2737,10 +2734,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110261910</v>
+        <v>110260306</v>
       </c>
       <c r="B19" t="n">
-        <v>56411</v>
+        <v>89410</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2753,31 +2750,30 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2785,10 +2781,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>676096.0533834111</v>
+        <v>675814.8945759572</v>
       </c>
       <c r="R19" t="n">
-        <v>7280470.851153294</v>
+        <v>7280569.421578153</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2815,7 +2811,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2825,7 +2821,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2833,17 +2829,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Hack i basen på gran</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2862,10 +2854,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>110260454</v>
+        <v>110260225</v>
       </c>
       <c r="B20" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2878,27 +2870,27 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2909,10 +2901,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>675595.1768940123</v>
+        <v>675909.7835486304</v>
       </c>
       <c r="R20" t="n">
-        <v>7280599.611201612</v>
+        <v>7280469.475099097</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2982,10 +2974,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>110260609</v>
+        <v>110261964</v>
       </c>
       <c r="B21" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2998,30 +2990,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3029,13 +3022,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>675654.5452363107</v>
+        <v>675884.2592878346</v>
       </c>
       <c r="R21" t="n">
-        <v>7280510.355195801</v>
+        <v>7280459.21828144</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3077,13 +3070,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack på gammal gran</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3102,7 +3099,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>110261393</v>
+        <v>110260251</v>
       </c>
       <c r="B22" t="n">
         <v>89392</v>
@@ -3149,10 +3146,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>676129.8106138164</v>
+        <v>675865.3009168429</v>
       </c>
       <c r="R22" t="n">
-        <v>7280475.392344966</v>
+        <v>7280450.189701275</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3179,7 +3176,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3189,7 +3186,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3222,7 +3219,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110261486</v>
+        <v>110260290</v>
       </c>
       <c r="B23" t="n">
         <v>81236</v>
@@ -3269,10 +3266,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>676089.87582062</v>
+        <v>675810.1140213351</v>
       </c>
       <c r="R23" t="n">
-        <v>7280470.06078633</v>
+        <v>7280470.467450392</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3299,7 +3296,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3309,7 +3306,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3342,10 +3339,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>110261964</v>
+        <v>110260327</v>
       </c>
       <c r="B24" t="n">
-        <v>56395</v>
+        <v>89673</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3358,31 +3355,30 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3390,13 +3386,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>675884.2592878346</v>
+        <v>675765.3358914485</v>
       </c>
       <c r="R24" t="n">
-        <v>7280459.21828144</v>
+        <v>7280599.575330046</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3438,17 +3434,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>ringhack på gammal gran</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3467,10 +3459,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>110261354</v>
+        <v>110261460</v>
       </c>
       <c r="B25" t="n">
-        <v>89392</v>
+        <v>89742</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3479,25 +3471,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>1506</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3514,13 +3506,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>676164.9892225445</v>
+        <v>676099.937234754</v>
       </c>
       <c r="R25" t="n">
-        <v>7280449.75695904</v>
+        <v>7280475.233084883</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3587,10 +3579,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>110260251</v>
+        <v>110261361</v>
       </c>
       <c r="B26" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3603,21 +3595,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3634,13 +3626,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>675865.3009168429</v>
+        <v>676164.9892225445</v>
       </c>
       <c r="R26" t="n">
-        <v>7280450.189701275</v>
+        <v>7280449.75695904</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3664,7 +3656,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3674,7 +3666,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3707,10 +3699,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>110261106</v>
+        <v>110261282</v>
       </c>
       <c r="B27" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3723,25 +3715,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
@@ -3750,10 +3746,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>675690.2188880614</v>
+        <v>676230.6180392652</v>
       </c>
       <c r="R27" t="n">
-        <v>7280544.855100686</v>
+        <v>7280489.81917104</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3780,7 +3776,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3790,7 +3786,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3823,10 +3819,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>110261431</v>
+        <v>110261532</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3839,27 +3835,27 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -3870,10 +3866,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>676105.0020915827</v>
+        <v>676070.2438064384</v>
       </c>
       <c r="R28" t="n">
-        <v>7280460.20224895</v>
+        <v>7280444.821680367</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3943,10 +3939,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>110260290</v>
+        <v>110261302</v>
       </c>
       <c r="B29" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3959,21 +3955,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3990,10 +3986,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>675810.1140213351</v>
+        <v>676239.7320939545</v>
       </c>
       <c r="R29" t="n">
-        <v>7280470.467450392</v>
+        <v>7280469.645686759</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4020,7 +4016,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4030,7 +4026,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4063,10 +4059,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>110261275</v>
+        <v>110261473</v>
       </c>
       <c r="B30" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4079,21 +4075,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4110,10 +4106,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>676230.6180392652</v>
+        <v>676099.937234754</v>
       </c>
       <c r="R30" t="n">
-        <v>7280489.81917104</v>
+        <v>7280475.233084883</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4183,10 +4179,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>110260581</v>
+        <v>110261504</v>
       </c>
       <c r="B31" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4199,21 +4195,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4230,10 +4226,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>675645.423038156</v>
+        <v>676080.5199388565</v>
       </c>
       <c r="R31" t="n">
-        <v>7280510.21620127</v>
+        <v>7280439.642765212</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4260,7 +4256,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4270,7 +4266,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4303,10 +4299,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>110260888</v>
+        <v>110261910</v>
       </c>
       <c r="B32" t="n">
-        <v>89406</v>
+        <v>56411</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4319,30 +4315,31 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1204</v>
+        <v>100049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4350,10 +4347,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>675665.3588325111</v>
+        <v>676096.0533834111</v>
       </c>
       <c r="R32" t="n">
-        <v>7280530.49529985</v>
+        <v>7280470.851153294</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4380,7 +4377,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4390,7 +4387,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4398,13 +4395,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Hack i basen på gran</t>
+        </is>
+      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4423,10 +4424,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>110261223</v>
+        <v>110261393</v>
       </c>
       <c r="B33" t="n">
-        <v>90653</v>
+        <v>89392</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4435,29 +4436,33 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4466,10 +4471,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>676250.5682961219</v>
+        <v>676129.8106138164</v>
       </c>
       <c r="R33" t="n">
-        <v>7280659.757381739</v>
+        <v>7280475.392344966</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4512,11 +4517,6 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Fjolårets fruktkroppar, vit mycel matta i marken under</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4544,10 +4544,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>110261745</v>
+        <v>110261486</v>
       </c>
       <c r="B34" t="n">
-        <v>89392</v>
+        <v>81236</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4560,21 +4560,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4591,10 +4591,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>676075.0416689033</v>
+        <v>676089.87582062</v>
       </c>
       <c r="R34" t="n">
-        <v>7280454.64859048</v>
+        <v>7280470.06078633</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>110261319</v>
+        <v>110261354</v>
       </c>
       <c r="B35" t="n">
         <v>89392</v>
@@ -4711,13 +4711,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>676230.0508461401</v>
+        <v>676164.9892225445</v>
       </c>
       <c r="R35" t="n">
-        <v>7280444.596607687</v>
+        <v>7280449.75695904</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4784,10 +4784,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>110260473</v>
+        <v>110261431</v>
       </c>
       <c r="B36" t="n">
-        <v>89673</v>
+        <v>77506</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4800,27 +4800,27 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -4831,10 +4831,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>675615.5883526852</v>
+        <v>676105.0020915827</v>
       </c>
       <c r="R36" t="n">
-        <v>7280584.682483152</v>
+        <v>7280460.20224895</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4904,10 +4904,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>110260649</v>
+        <v>110261275</v>
       </c>
       <c r="B37" t="n">
-        <v>89673</v>
+        <v>81236</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4920,21 +4920,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>658</v>
+        <v>1312</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4951,10 +4951,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>675660.07095134</v>
+        <v>676230.6180392652</v>
       </c>
       <c r="R37" t="n">
-        <v>7280535.563534467</v>
+        <v>7280489.81917104</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -5024,10 +5024,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>110261181</v>
+        <v>110261745</v>
       </c>
       <c r="B38" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5036,25 +5036,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5071,10 +5071,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>675695.2059727855</v>
+        <v>676075.0416689033</v>
       </c>
       <c r="R38" t="n">
-        <v>7280544.743253341</v>
+        <v>7280454.64859048</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5144,10 +5144,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>110260327</v>
+        <v>110261319</v>
       </c>
       <c r="B39" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5160,21 +5160,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>675765.3358914485</v>
+        <v>676230.0508461401</v>
       </c>
       <c r="R39" t="n">
-        <v>7280599.575330046</v>
+        <v>7280444.596607687</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">

--- a/artfynd/A 50304-2022.xlsx
+++ b/artfynd/A 50304-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110261223</v>
+        <v>109488967</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,13 +724,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>676250.5682961219</v>
+        <v>675846.4177085289</v>
       </c>
       <c r="R2" t="n">
-        <v>7280659.757381739</v>
+        <v>7280439.922101423</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -753,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,7 +764,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -773,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Fjolårets fruktkroppar, vit mycel matta i marken under</t>
+          <t>Spår av tretåig hackspett på gran</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,29 +783,28 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Heike Kontermann</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Heike Kontermann, Annika Lidström</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110260680</v>
+        <v>109488926</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>89832</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,33 +813,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -848,13 +844,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>675660.07095134</v>
+        <v>675867.080447775</v>
       </c>
       <c r="R3" t="n">
-        <v>7280535.563534467</v>
+        <v>7280448.224992081</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -878,7 +874,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -888,7 +884,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -906,25 +902,40 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Heike Kontermann</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Heike Kontermann, Annika Lidström</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110260558</v>
+        <v>110260206</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,21 +948,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -968,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>675635.4738289427</v>
+        <v>675919.9575304504</v>
       </c>
       <c r="R4" t="n">
-        <v>7280510.027055313</v>
+        <v>7280479.6283172</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1041,7 +1052,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110260425</v>
+        <v>110260680</v>
       </c>
       <c r="B5" t="n">
         <v>89392</v>
@@ -1088,10 +1099,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>675585.2280005201</v>
+        <v>675660.07095134</v>
       </c>
       <c r="R5" t="n">
-        <v>7280599.422211331</v>
+        <v>7280535.563534467</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1161,10 +1172,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110260506</v>
+        <v>110261460</v>
       </c>
       <c r="B6" t="n">
-        <v>56395</v>
+        <v>89742</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1173,35 +1184,34 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>1506</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1209,10 +1219,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>675629.4341162401</v>
+        <v>676099.937234754</v>
       </c>
       <c r="R6" t="n">
-        <v>7280500.125891969</v>
+        <v>7280475.233084883</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1239,7 +1249,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1249,7 +1259,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1257,17 +1267,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1286,10 +1292,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110260601</v>
+        <v>110260306</v>
       </c>
       <c r="B7" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1302,21 +1308,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1333,10 +1339,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>675654.5452363107</v>
+        <v>675814.8945759572</v>
       </c>
       <c r="R7" t="n">
-        <v>7280510.355195801</v>
+        <v>7280569.421578153</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1406,7 +1412,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110260454</v>
+        <v>110260558</v>
       </c>
       <c r="B8" t="n">
         <v>89392</v>
@@ -1453,10 +1459,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>675595.1768940123</v>
+        <v>675635.4738289427</v>
       </c>
       <c r="R8" t="n">
-        <v>7280599.611201612</v>
+        <v>7280510.027055313</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1526,7 +1532,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110260609</v>
+        <v>110260225</v>
       </c>
       <c r="B9" t="n">
         <v>77506</v>
@@ -1573,10 +1579,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>675654.5452363107</v>
+        <v>675909.7835486304</v>
       </c>
       <c r="R9" t="n">
-        <v>7280510.355195801</v>
+        <v>7280469.475099097</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1646,10 +1652,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110261106</v>
+        <v>110261361</v>
       </c>
       <c r="B10" t="n">
-        <v>81236</v>
+        <v>89673</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1662,25 +1668,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
@@ -1689,13 +1699,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>675690.2188880614</v>
+        <v>676164.9892225445</v>
       </c>
       <c r="R10" t="n">
-        <v>7280544.855100686</v>
+        <v>7280449.75695904</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1719,7 +1729,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1729,7 +1739,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1762,7 +1772,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110260581</v>
+        <v>110260425</v>
       </c>
       <c r="B11" t="n">
         <v>89392</v>
@@ -1809,10 +1819,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>675645.423038156</v>
+        <v>675585.2280005201</v>
       </c>
       <c r="R11" t="n">
-        <v>7280510.21620127</v>
+        <v>7280599.422211331</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,10 +1892,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110260888</v>
+        <v>110261282</v>
       </c>
       <c r="B12" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1898,21 +1908,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1929,10 +1939,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>675665.3588325111</v>
+        <v>676230.6180392652</v>
       </c>
       <c r="R12" t="n">
-        <v>7280530.49529985</v>
+        <v>7280489.81917104</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1959,7 +1969,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1969,7 +1979,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2002,10 +2012,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110260473</v>
+        <v>110261532</v>
       </c>
       <c r="B13" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2018,21 +2028,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2049,10 +2059,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>675615.5883526852</v>
+        <v>676070.2438064384</v>
       </c>
       <c r="R13" t="n">
-        <v>7280584.682483152</v>
+        <v>7280444.821680367</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2079,7 +2089,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2089,7 +2099,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2122,10 +2132,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110260649</v>
+        <v>110260506</v>
       </c>
       <c r="B14" t="n">
-        <v>89673</v>
+        <v>56395</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2138,30 +2148,31 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2169,10 +2180,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>675660.07095134</v>
+        <v>675629.4341162401</v>
       </c>
       <c r="R14" t="n">
-        <v>7280535.563534467</v>
+        <v>7280500.125891969</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2217,13 +2228,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2242,10 +2257,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110261181</v>
+        <v>110260601</v>
       </c>
       <c r="B15" t="n">
-        <v>89356</v>
+        <v>81236</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2254,25 +2269,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2289,10 +2304,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>675695.2059727855</v>
+        <v>675654.5452363107</v>
       </c>
       <c r="R15" t="n">
-        <v>7280544.743253341</v>
+        <v>7280510.355195801</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2362,10 +2377,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>109488967</v>
+        <v>110261302</v>
       </c>
       <c r="B16" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2378,27 +2393,30 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2406,13 +2424,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>675846.4177085289</v>
+        <v>676239.7320939545</v>
       </c>
       <c r="R16" t="n">
-        <v>7280439.922101423</v>
+        <v>7280469.645686759</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2436,7 +2454,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2446,7 +2464,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2454,39 +2472,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Spår av tretåig hackspett på gran</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Heike Kontermann</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Heike Kontermann, Annika Lidström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>109488926</v>
+        <v>110261473</v>
       </c>
       <c r="B17" t="n">
-        <v>89832</v>
+        <v>89410</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2495,29 +2509,33 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2526,13 +2544,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>675867.080447775</v>
+        <v>676099.937234754</v>
       </c>
       <c r="R17" t="n">
-        <v>7280448.224992081</v>
+        <v>7280475.233084883</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2556,7 +2574,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2566,7 +2584,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2584,40 +2602,25 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Heike Kontermann</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Heike Kontermann, Annika Lidström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>110260206</v>
+        <v>110261504</v>
       </c>
       <c r="B18" t="n">
-        <v>89410</v>
+        <v>89673</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2630,21 +2633,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2661,10 +2664,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>675919.9575304504</v>
+        <v>676080.5199388565</v>
       </c>
       <c r="R18" t="n">
-        <v>7280479.6283172</v>
+        <v>7280439.642765212</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2691,7 +2694,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2701,7 +2704,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2734,10 +2737,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110260306</v>
+        <v>110261910</v>
       </c>
       <c r="B19" t="n">
-        <v>89410</v>
+        <v>56411</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2750,30 +2753,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2781,10 +2785,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>675814.8945759572</v>
+        <v>676096.0533834111</v>
       </c>
       <c r="R19" t="n">
-        <v>7280569.421578153</v>
+        <v>7280470.851153294</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2811,7 +2815,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2821,7 +2825,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2829,13 +2833,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Hack i basen på gran</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2854,10 +2862,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>110260225</v>
+        <v>110260454</v>
       </c>
       <c r="B20" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2870,27 +2878,27 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -2901,10 +2909,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>675909.7835486304</v>
+        <v>675595.1768940123</v>
       </c>
       <c r="R20" t="n">
-        <v>7280469.475099097</v>
+        <v>7280599.611201612</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2974,10 +2982,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>110261964</v>
+        <v>110260609</v>
       </c>
       <c r="B21" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2990,31 +2998,30 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3022,13 +3029,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>675884.2592878346</v>
+        <v>675654.5452363107</v>
       </c>
       <c r="R21" t="n">
-        <v>7280459.21828144</v>
+        <v>7280510.355195801</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3070,17 +3077,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack på gammal gran</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3099,7 +3102,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>110260251</v>
+        <v>110261393</v>
       </c>
       <c r="B22" t="n">
         <v>89392</v>
@@ -3146,10 +3149,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>675865.3009168429</v>
+        <v>676129.8106138164</v>
       </c>
       <c r="R22" t="n">
-        <v>7280450.189701275</v>
+        <v>7280475.392344966</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3176,7 +3179,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3186,7 +3189,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3219,7 +3222,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110260290</v>
+        <v>110261486</v>
       </c>
       <c r="B23" t="n">
         <v>81236</v>
@@ -3266,10 +3269,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>675810.1140213351</v>
+        <v>676089.87582062</v>
       </c>
       <c r="R23" t="n">
-        <v>7280470.467450392</v>
+        <v>7280470.06078633</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3296,7 +3299,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3306,7 +3309,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-06-13</t>
+          <t>2023-06-14</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3339,10 +3342,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>110260327</v>
+        <v>110261964</v>
       </c>
       <c r="B24" t="n">
-        <v>89673</v>
+        <v>56395</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3355,30 +3358,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3386,13 +3390,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>675765.3358914485</v>
+        <v>675884.2592878346</v>
       </c>
       <c r="R24" t="n">
-        <v>7280599.575330046</v>
+        <v>7280459.21828144</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3434,13 +3438,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>ringhack på gammal gran</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3459,10 +3467,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>110261460</v>
+        <v>110261354</v>
       </c>
       <c r="B25" t="n">
-        <v>89742</v>
+        <v>89392</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3471,25 +3479,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1506</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3506,13 +3514,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>676099.937234754</v>
+        <v>676164.9892225445</v>
       </c>
       <c r="R25" t="n">
-        <v>7280475.233084883</v>
+        <v>7280449.75695904</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3579,10 +3587,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>110261361</v>
+        <v>110260251</v>
       </c>
       <c r="B26" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3595,21 +3603,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3626,13 +3634,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>676164.9892225445</v>
+        <v>675865.3009168429</v>
       </c>
       <c r="R26" t="n">
-        <v>7280449.75695904</v>
+        <v>7280450.189701275</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3656,7 +3664,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3666,7 +3674,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3699,10 +3707,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>110261282</v>
+        <v>110261106</v>
       </c>
       <c r="B27" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3715,29 +3723,25 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
@@ -3746,10 +3750,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>676230.6180392652</v>
+        <v>675690.2188880614</v>
       </c>
       <c r="R27" t="n">
-        <v>7280489.81917104</v>
+        <v>7280544.855100686</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3776,7 +3780,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3786,7 +3790,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3819,10 +3823,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>110261532</v>
+        <v>110261431</v>
       </c>
       <c r="B28" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3835,27 +3839,27 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -3866,10 +3870,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>676070.2438064384</v>
+        <v>676105.0020915827</v>
       </c>
       <c r="R28" t="n">
-        <v>7280444.821680367</v>
+        <v>7280460.20224895</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3939,10 +3943,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>110261302</v>
+        <v>110260290</v>
       </c>
       <c r="B29" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3955,21 +3959,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3986,10 +3990,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>676239.7320939545</v>
+        <v>675810.1140213351</v>
       </c>
       <c r="R29" t="n">
-        <v>7280469.645686759</v>
+        <v>7280470.467450392</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4016,7 +4020,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4026,7 +4030,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4059,10 +4063,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>110261473</v>
+        <v>110261275</v>
       </c>
       <c r="B30" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4075,21 +4079,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4106,10 +4110,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>676099.937234754</v>
+        <v>676230.6180392652</v>
       </c>
       <c r="R30" t="n">
-        <v>7280475.233084883</v>
+        <v>7280489.81917104</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4179,10 +4183,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>110261504</v>
+        <v>110260581</v>
       </c>
       <c r="B31" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4195,21 +4199,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4226,10 +4230,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>676080.5199388565</v>
+        <v>675645.423038156</v>
       </c>
       <c r="R31" t="n">
-        <v>7280439.642765212</v>
+        <v>7280510.21620127</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4256,7 +4260,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4266,7 +4270,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4299,10 +4303,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>110261910</v>
+        <v>110260888</v>
       </c>
       <c r="B32" t="n">
-        <v>56411</v>
+        <v>89406</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4315,31 +4319,30 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100049</v>
+        <v>1204</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4347,10 +4350,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>676096.0533834111</v>
+        <v>675665.3588325111</v>
       </c>
       <c r="R32" t="n">
-        <v>7280470.851153294</v>
+        <v>7280530.49529985</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4377,7 +4380,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4387,7 +4390,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4395,17 +4398,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Hack i basen på gran</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4424,10 +4423,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>110261393</v>
+        <v>110261223</v>
       </c>
       <c r="B33" t="n">
-        <v>89392</v>
+        <v>90653</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4436,33 +4435,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4471,10 +4466,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>676129.8106138164</v>
+        <v>676250.5682961219</v>
       </c>
       <c r="R33" t="n">
-        <v>7280475.392344966</v>
+        <v>7280659.757381739</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4517,6 +4512,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Fjolårets fruktkroppar, vit mycel matta i marken under</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4544,10 +4544,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>110261486</v>
+        <v>110261745</v>
       </c>
       <c r="B34" t="n">
-        <v>81236</v>
+        <v>89392</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4560,21 +4560,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4591,10 +4591,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>676089.87582062</v>
+        <v>676075.0416689033</v>
       </c>
       <c r="R34" t="n">
-        <v>7280470.06078633</v>
+        <v>7280454.64859048</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>110261354</v>
+        <v>110261319</v>
       </c>
       <c r="B35" t="n">
         <v>89392</v>
@@ -4711,13 +4711,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>676164.9892225445</v>
+        <v>676230.0508461401</v>
       </c>
       <c r="R35" t="n">
-        <v>7280449.75695904</v>
+        <v>7280444.596607687</v>
       </c>
       <c r="S35" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4784,10 +4784,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>110261431</v>
+        <v>110260473</v>
       </c>
       <c r="B36" t="n">
-        <v>77506</v>
+        <v>89673</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4800,27 +4800,27 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -4831,10 +4831,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>676105.0020915827</v>
+        <v>675615.5883526852</v>
       </c>
       <c r="R36" t="n">
-        <v>7280460.20224895</v>
+        <v>7280584.682483152</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4904,10 +4904,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>110261275</v>
+        <v>110260649</v>
       </c>
       <c r="B37" t="n">
-        <v>81236</v>
+        <v>89673</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4920,21 +4920,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1312</v>
+        <v>658</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4951,10 +4951,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>676230.6180392652</v>
+        <v>675660.07095134</v>
       </c>
       <c r="R37" t="n">
-        <v>7280489.81917104</v>
+        <v>7280535.563534467</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -5024,10 +5024,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>110261745</v>
+        <v>110261181</v>
       </c>
       <c r="B38" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5036,25 +5036,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5071,10 +5071,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>676075.0416689033</v>
+        <v>675695.2059727855</v>
       </c>
       <c r="R38" t="n">
-        <v>7280454.64859048</v>
+        <v>7280544.743253341</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -5144,10 +5144,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>110261319</v>
+        <v>110260327</v>
       </c>
       <c r="B39" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5160,21 +5160,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>676230.0508461401</v>
+        <v>675765.3358914485</v>
       </c>
       <c r="R39" t="n">
-        <v>7280444.596607687</v>
+        <v>7280599.575330046</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -5231,7 +5231,7 @@
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-06-14</t>
+          <t>2023-06-13</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
